--- a/data/General Table for Surveillance/Past_HPVpositive_NILM_AND_HPVnegative.xlsx
+++ b/data/General Table for Surveillance/Past_HPVpositive_NILM_AND_HPVnegative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/new tables for the tool/General Table for Surveillance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Surveillance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3F0C9-E4AD-8347-8FCE-E08C112B2911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEBABA-F341-144F-8F16-D7B6AEC2E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{BA597462-D1C7-414E-AC44-FF18848359DF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{BA597462-D1C7-414E-AC44-FF18848359DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>PAST HISTORY (previous 2)</t>
   </si>
@@ -77,27 +77,9 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>CIN3+ Immediate risk (%)</t>
   </si>
   <si>
@@ -170,51 +152,15 @@
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN3+ 1 year risk  (%)</t>
   </si>
   <si>
@@ -245,9 +191,6 @@
     <t>Unweighted Number of CIN2+ Cases</t>
   </si>
   <si>
-    <t>UnweightedNumber of CIN3+ Cases</t>
-  </si>
-  <si>
     <t>UnweightedNumber of Cancer Cases</t>
   </si>
   <si>
@@ -257,13 +200,208 @@
     <t>ASC-US, LSIL</t>
   </si>
   <si>
-    <t>Unweighted N Informative</t>
-  </si>
-  <si>
     <t>High Grade</t>
   </si>
   <si>
     <t>Note: HPV-negative ALL should be counted in the total.</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>SCIN2+ E 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ L95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER SE 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
+  </si>
+  <si>
+    <t>Unweighted %</t>
+  </si>
+  <si>
+    <t>Unweighted Informative N</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of CIN3+ Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Unknown Cases</t>
   </si>
 </sst>
 </file>
@@ -372,7 +510,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,13 +540,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -416,14 +548,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -747,7 +882,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:C7"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:DF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,18 +891,18 @@
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="19"/>
+    <col min="7" max="7" width="10.83203125" style="17"/>
     <col min="8" max="12" width="10.83203125" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" customWidth="1"/>
     <col min="18" max="20" width="10.83203125" customWidth="1"/>
-    <col min="21" max="24" width="10.83203125" style="14"/>
-    <col min="25" max="40" width="10.83203125" style="14" customWidth="1"/>
-    <col min="41" max="45" width="10.83203125" style="14"/>
-    <col min="46" max="92" width="10.83203125" style="14" customWidth="1"/>
+    <col min="21" max="24" width="10.83203125" style="13"/>
+    <col min="25" max="40" width="10.83203125" style="13" customWidth="1"/>
+    <col min="41" max="45" width="10.83203125" style="13"/>
+    <col min="46" max="92" width="10.83203125" style="13" customWidth="1"/>
     <col min="93" max="93" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="14.6640625" style="14" customWidth="1"/>
+    <col min="94" max="94" width="14.6640625" style="13" customWidth="1"/>
     <col min="96" max="96" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.83203125" style="16"/>
+    <col min="97" max="97" width="10.83203125" style="14"/>
     <col min="98" max="98" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,7 +910,7 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -793,314 +928,314 @@
       <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>33</v>
+      <c r="H1" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>36</v>
+      <c r="J1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>39</v>
+      <c r="N1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>42</v>
+      <c r="R1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="U1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="BZ1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="CP1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="CS1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="CV1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="CW1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="CX1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CZ1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="DA1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="DB1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="DC1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="CK1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="CO1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="CS1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="CV1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="CW1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="CX1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="CZ1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="DA1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="DB1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="DD1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="DE1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="DF1" s="13" t="s">
-        <v>42</v>
+      <c r="DD1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="DE1" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="DF1" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:110" x14ac:dyDescent="0.2">
@@ -1108,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1117,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5">
         <v>11172</v>
@@ -1268,10 +1403,10 @@
       <c r="CL2" s="7"/>
       <c r="CM2" s="7"/>
       <c r="CN2" s="7"/>
-      <c r="CO2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="CP2" s="14">
+      <c r="CO2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="CP2" s="13">
         <v>0.92639337010059908</v>
       </c>
       <c r="CQ2" s="4" t="str">
@@ -1284,16 +1419,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5">
         <v>1002</v>
@@ -1445,32 +1580,32 @@
       <c r="CM3" s="7"/>
       <c r="CN3" s="7"/>
       <c r="CO3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP3" s="14">
+        <v>22</v>
+      </c>
+      <c r="CP3" s="13">
         <v>0.99999549397169807</v>
       </c>
       <c r="CQ3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="CS3" s="18"/>
+      <c r="CS3" s="16"/>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5">
         <v>663</v>
@@ -1622,32 +1757,32 @@
       <c r="CM4" s="7"/>
       <c r="CN4" s="7"/>
       <c r="CO4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP4" s="14">
+        <v>22</v>
+      </c>
+      <c r="CP4" s="13">
         <v>0.98436024764954533</v>
       </c>
       <c r="CQ4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="CS4" s="18"/>
+      <c r="CS4" s="16"/>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5">
         <v>124</v>
@@ -1799,66 +1934,66 @@
       <c r="CM5" s="7"/>
       <c r="CN5" s="7"/>
       <c r="CO5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="CP5" s="14">
+        <v>26</v>
+      </c>
+      <c r="CP5" s="13">
         <v>0.93847105162003164</v>
       </c>
       <c r="CQ5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="CS5" s="18"/>
+      <c r="CS5" s="16"/>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="CO6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="CO6" s="13"/>
       <c r="CP6"/>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="CB7" s="19"/>
+      <c r="A7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="CB7" s="17"/>
       <c r="CP7"/>
       <c r="CS7"/>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="CB8" s="19"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="CB8" s="17"/>
       <c r="CP8"/>
       <c r="CS8"/>
     </row>
